--- a/ProjectCore/ProjectData/RoomData.xlsx
+++ b/ProjectCore/ProjectData/RoomData.xlsx
@@ -4,33 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Room" sheetId="1" r:id="rId1"/>
-    <sheet name="Room_Type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Room Type</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>AZ DIGITAL</t>
-  </si>
-  <si>
-    <t>AZ ANALOG</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Lab</t>
   </si>
@@ -67,24 +51,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="16"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor indexed="16"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -133,18 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,190 +488,190 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="1" spans="1:4" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>101</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C12" ca="1" si="0">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>102</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>103</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>200</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>201</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>202</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>203</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>204</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>204</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>300</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>300</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>301</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D11" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>301</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>40</v>
       </c>
     </row>
@@ -714,47 +680,4 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/ProjectCore/ProjectData/RoomData.xlsx
+++ b/ProjectCore/ProjectData/RoomData.xlsx
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -518,11 +518,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -533,146 +532,10 @@
         <v>101</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>202</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>204</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>300</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>301</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
